--- a/Xau back testing.xlsx
+++ b/Xau back testing.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abc\Desktop\xauusd\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="119">
   <si>
     <t>Date</t>
   </si>
@@ -373,6 +373,9 @@
   </si>
   <si>
     <t>6:00pm</t>
+  </si>
+  <si>
+    <t>u</t>
   </si>
 </sst>
 </file>
@@ -880,8 +883,8 @@
   </sheetPr>
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="B224" sqref="B224"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -896,7 +899,9 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12.75">
       <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>

--- a/Xau back testing.xlsx
+++ b/Xau back testing.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="119">
   <si>
     <t>Date</t>
   </si>
@@ -883,8 +883,8 @@
   </sheetPr>
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A208" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="A236" sqref="A236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -10215,13 +10215,27 @@
     </row>
     <row r="224" spans="1:26" ht="12.75">
       <c r="A224" s="1"/>
-      <c r="B224" s="1"/>
-      <c r="C224" s="1"/>
-      <c r="D224" s="1"/>
-      <c r="E224" s="1"/>
-      <c r="F224" s="1"/>
-      <c r="G224" s="1"/>
-      <c r="H224" s="1"/>
+      <c r="B224" s="24">
+        <v>45821</v>
+      </c>
+      <c r="C224" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E224" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F224" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="G224" s="1">
+        <v>100</v>
+      </c>
+      <c r="H224" s="31">
+        <v>0.12708333333333333</v>
+      </c>
       <c r="I224" s="1"/>
       <c r="J224" s="1"/>
       <c r="K224" s="1"/>
@@ -10243,13 +10257,25 @@
     </row>
     <row r="225" spans="1:26" ht="12.75">
       <c r="A225" s="1"/>
-      <c r="B225" s="1"/>
-      <c r="C225" s="1"/>
-      <c r="D225" s="1"/>
-      <c r="E225" s="1"/>
-      <c r="F225" s="1"/>
-      <c r="G225" s="1"/>
-      <c r="H225" s="1"/>
+      <c r="B225" s="24">
+        <v>45824</v>
+      </c>
+      <c r="C225" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E225" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F225" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="G225" s="1">
+        <v>100</v>
+      </c>
+      <c r="H225" s="31"/>
       <c r="I225" s="1"/>
       <c r="J225" s="1"/>
       <c r="K225" s="1"/>
@@ -10271,13 +10297,27 @@
     </row>
     <row r="226" spans="1:26" ht="12.75">
       <c r="A226" s="1"/>
-      <c r="B226" s="1"/>
-      <c r="C226" s="1"/>
-      <c r="D226" s="1"/>
-      <c r="E226" s="1"/>
-      <c r="F226" s="1"/>
-      <c r="G226" s="1"/>
-      <c r="H226" s="1"/>
+      <c r="B226" s="24">
+        <v>45824</v>
+      </c>
+      <c r="C226" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E226" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F226" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="G226" s="1">
+        <v>150</v>
+      </c>
+      <c r="H226" s="31">
+        <v>4.3750000000000004E-2</v>
+      </c>
       <c r="I226" s="1"/>
       <c r="J226" s="1"/>
       <c r="K226" s="1"/>
@@ -10299,13 +10339,27 @@
     </row>
     <row r="227" spans="1:26" ht="12.75">
       <c r="A227" s="1"/>
-      <c r="B227" s="1"/>
-      <c r="C227" s="1"/>
-      <c r="D227" s="1"/>
-      <c r="E227" s="1"/>
-      <c r="F227" s="1"/>
-      <c r="G227" s="1"/>
-      <c r="H227" s="1"/>
+      <c r="B227" s="24">
+        <v>45825</v>
+      </c>
+      <c r="C227" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E227" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F227" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="G227" s="1">
+        <v>100</v>
+      </c>
+      <c r="H227" s="31">
+        <v>4.3055555555555562E-2</v>
+      </c>
       <c r="I227" s="1"/>
       <c r="J227" s="1"/>
       <c r="K227" s="1"/>

--- a/Xau back testing.xlsx
+++ b/Xau back testing.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="120">
   <si>
     <t>Date</t>
   </si>
@@ -376,6 +376,9 @@
   </si>
   <si>
     <t>u</t>
+  </si>
+  <si>
+    <t>4:30Pm</t>
   </si>
 </sst>
 </file>
@@ -883,8 +886,8 @@
   </sheetPr>
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="A236" sqref="A236"/>
+    <sheetView tabSelected="1" topLeftCell="A224" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="B229" sqref="B229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -10381,13 +10384,27 @@
     </row>
     <row r="228" spans="1:26" ht="12.75">
       <c r="A228" s="1"/>
-      <c r="B228" s="1"/>
-      <c r="C228" s="1"/>
-      <c r="D228" s="1"/>
-      <c r="E228" s="1"/>
-      <c r="F228" s="1"/>
-      <c r="G228" s="1"/>
-      <c r="H228" s="1"/>
+      <c r="B228" s="24">
+        <v>45828</v>
+      </c>
+      <c r="C228" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E228" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F228" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="G228" s="1">
+        <v>130</v>
+      </c>
+      <c r="H228" s="31">
+        <v>4.6527777777777779E-2</v>
+      </c>
       <c r="I228" s="1"/>
       <c r="J228" s="1"/>
       <c r="K228" s="1"/>
@@ -10409,13 +10426,27 @@
     </row>
     <row r="229" spans="1:26" ht="12.75">
       <c r="A229" s="1"/>
-      <c r="B229" s="1"/>
-      <c r="C229" s="1"/>
-      <c r="D229" s="1"/>
-      <c r="E229" s="1"/>
-      <c r="F229" s="1"/>
-      <c r="G229" s="1"/>
-      <c r="H229" s="1"/>
+      <c r="B229" s="24">
+        <v>45828</v>
+      </c>
+      <c r="C229" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E229" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F229" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="G229" s="1">
+        <v>70</v>
+      </c>
+      <c r="H229" s="1">
+        <v>1</v>
+      </c>
       <c r="I229" s="1"/>
       <c r="J229" s="1"/>
       <c r="K229" s="1"/>
